--- a/GráficoNovo.xlsx
+++ b/GráficoNovo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20191104010011\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20191104010011\ProjetoGuarda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BB4B78-ED22-4344-BD2E-B7D94A5F1EAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2DDA3F-5D05-441B-8FD1-F2AA613B6339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B3C0B83C-095D-44D1-A033-A23A2F28C19A}"/>
   </bookViews>
@@ -159,9 +159,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,6 +178,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
@@ -189,25 +189,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -366,6 +347,25 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -460,9 +460,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Semana 1</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -515,9 +512,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Semana 2</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -564,6 +558,58 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CE91-4696-8380-8310AA595636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4257-4403-90F7-2E36733FEE04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,16 +1406,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5405A0A0-9C59-4892-B87A-59931EC4906B}" name="Tabela2" displayName="Tabela2" ref="B2:H3" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5405A0A0-9C59-4892-B87A-59931EC4906B}" name="Tabela2" displayName="Tabela2" ref="B2:H3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B2:H3" xr:uid="{A669EE0F-4343-4609-B947-A8CE327EA31F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7603D632-3DAC-47B1-B345-2D0AD6CFC529}" name="SEGUNDA" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C98B92C8-D907-4243-86BF-E915219EAFB8}" name="TERÇA" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{43599219-6B37-49A5-B347-28228B317D5A}" name="QUARTA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4FD32E48-0059-497B-9005-C23AA465C19B}" name="QUINTA" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4E105DD1-2610-49AD-99B5-66B94E247017}" name="SEXTA" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{B7A8DADD-83D5-4C14-98E0-D199B01BFA8F}" name="SÁBADO" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D226A5A4-FD2E-4941-B417-176963766F8B}" name="DOMINGO" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7603D632-3DAC-47B1-B345-2D0AD6CFC529}" name="SEGUNDA" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C98B92C8-D907-4243-86BF-E915219EAFB8}" name="TERÇA" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{43599219-6B37-49A5-B347-28228B317D5A}" name="QUARTA" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4FD32E48-0059-497B-9005-C23AA465C19B}" name="QUINTA" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4E105DD1-2610-49AD-99B5-66B94E247017}" name="SEXTA" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{B7A8DADD-83D5-4C14-98E0-D199B01BFA8F}" name="SÁBADO" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D226A5A4-FD2E-4941-B417-176963766F8B}" name="DOMINGO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1675,7 +1721,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,16 +1730,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1702,94 +1748,108 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>8</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
